--- a/blanco-meta/telegrams/CommonRequest.xlsx
+++ b/blanco-meta/telegrams/CommonRequest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/cacco/oplux/oplux-meta/meta/telegrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82814BA6-7331-8244-8789-9530670F26F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F720D6-C160-8A4C-80CA-65747F51C1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="660" windowWidth="29040" windowHeight="15840" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>クラス名</t>
   </si>
@@ -383,10 +383,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>%</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>アノテーション</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -466,28 +462,35 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>アノテーション(Kt)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショウガタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@Introspected</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@field:Valid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%%</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>io.micronaut.core.annotation.Introspected</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>javax.validation.Valid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>S : RequestHeader, T : ApiTelegram</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アノテーション(Kt)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@field:Valid</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>javax.validation.Valid</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@Introspected</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>io.micronaut.core.annotation.Introspected</t>
-    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1971,10 +1974,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2080,7 +2083,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="84"/>
       <c r="G8" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
@@ -2093,11 +2096,11 @@
     </row>
     <row r="9" spans="1:20" s="31" customFormat="1">
       <c r="A9" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="70" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D9" s="71"/>
       <c r="E9" s="9"/>
@@ -2109,7 +2112,7 @@
       </c>
       <c r="B10" s="100"/>
       <c r="C10" s="70" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -2125,10 +2128,12 @@
     </row>
     <row r="11" spans="1:20" s="31" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="53"/>
-      <c r="C11" s="97"/>
+      <c r="C11" s="97" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="71"/>
       <c r="E11" s="55"/>
       <c r="F11" s="85"/>
@@ -2142,20 +2147,29 @@
       <c r="S11" s="77"/>
       <c r="T11" s="77"/>
     </row>
-    <row r="12" spans="1:20" s="31" customFormat="1">
-      <c r="A12" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="83"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
@@ -2164,6 +2178,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="83"/>
+      <c r="L13"/>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="76"/>
@@ -2173,34 +2188,35 @@
       <c r="S13" s="76"/>
       <c r="T13" s="76"/>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="83"/>
+    <row r="14" spans="1:20" s="31" customFormat="1">
+      <c r="A14" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="L14"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
+      <c r="M14"/>
+      <c r="N14"/>
     </row>
     <row r="15" spans="1:20" s="31" customFormat="1">
       <c r="A15" s="49" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15"/>
+      <c r="C15" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -2214,15 +2230,11 @@
     </row>
     <row r="16" spans="1:20" s="31" customFormat="1">
       <c r="A16" s="49" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B16" s="50"/>
-      <c r="C16" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
+      <c r="C16" s="51"/>
+      <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2236,10 +2248,12 @@
     </row>
     <row r="17" spans="1:20" s="31" customFormat="1">
       <c r="A17" s="49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="51" t="s">
+        <v>45</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -2254,12 +2268,10 @@
     </row>
     <row r="18" spans="1:20" s="31" customFormat="1">
       <c r="A18" s="49" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B18" s="50"/>
-      <c r="C18" s="51" t="s">
-        <v>45</v>
-      </c>
+      <c r="C18" s="51"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -2269,15 +2281,23 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
     </row>
     <row r="19" spans="1:20" s="31" customFormat="1">
       <c r="A19" s="49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="51" t="s">
+        <v>45</v>
+      </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -2286,7 +2306,6 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19"/>
       <c r="M19" s="78"/>
       <c r="N19" s="77"/>
       <c r="O19" s="77"/>
@@ -2298,12 +2317,10 @@
     </row>
     <row r="20" spans="1:20" s="31" customFormat="1">
       <c r="A20" s="49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="50"/>
-      <c r="C20" s="51" t="s">
-        <v>45</v>
-      </c>
+      <c r="C20" s="51"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -2322,85 +2339,85 @@
       <c r="T20" s="77"/>
     </row>
     <row r="21" spans="1:20" s="31" customFormat="1">
-      <c r="A21" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="A21" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
+      <c r="L21" s="73"/>
       <c r="M21" s="78"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
       <c r="S21" s="77"/>
       <c r="T21" s="77"/>
     </row>
-    <row r="22" spans="1:20" s="31" customFormat="1">
-      <c r="A22" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22"/>
+    <row r="22" spans="1:20">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="76"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="76"/>
+    </row>
+    <row r="23" spans="1:20" s="31" customFormat="1">
+      <c r="A23" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
     </row>
     <row r="24" spans="1:20" s="31" customFormat="1">
-      <c r="A24" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
       <c r="M24" s="77"/>
       <c r="N24" s="77"/>
       <c r="O24" s="77"/>
@@ -2411,13 +2428,13 @@
       <c r="T24" s="77"/>
     </row>
     <row r="25" spans="1:20" s="31" customFormat="1">
-      <c r="A25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="35"/>
       <c r="G25" s="73"/>
       <c r="H25" s="73"/>
@@ -2435,7 +2452,7 @@
     </row>
     <row r="26" spans="1:20" s="31" customFormat="1">
       <c r="A26" s="52" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="54"/>
@@ -2447,6 +2464,7 @@
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
       <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="77"/>
       <c r="N26" s="77"/>
       <c r="O26" s="77"/>
@@ -2457,21 +2475,19 @@
       <c r="T26" s="77"/>
     </row>
     <row r="27" spans="1:20" s="31" customFormat="1">
-      <c r="A27" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="77"/>
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="78"/>
       <c r="N27" s="77"/>
       <c r="O27" s="77"/>
       <c r="P27" s="77"/>
@@ -2481,19 +2497,16 @@
       <c r="T27" s="77"/>
     </row>
     <row r="28" spans="1:20" s="31" customFormat="1">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
+      <c r="A28" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
       <c r="L28" s="74"/>
-      <c r="M28" s="78"/>
+      <c r="M28" s="77"/>
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
       <c r="P28" s="77"/>
@@ -2503,61 +2516,63 @@
       <c r="T28" s="77"/>
     </row>
     <row r="29" spans="1:20" s="31" customFormat="1">
-      <c r="A29" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
       <c r="L29" s="74"/>
-      <c r="M29" s="77"/>
+      <c r="M29" s="80"/>
       <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="77"/>
       <c r="S29" s="77"/>
       <c r="T29" s="77"/>
     </row>
     <row r="30" spans="1:20" s="31" customFormat="1">
-      <c r="A30" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="77"/>
       <c r="S30" s="77"/>
       <c r="T30" s="77"/>
     </row>
     <row r="31" spans="1:20" s="31" customFormat="1">
-      <c r="A31" s="58">
-        <v>1</v>
-      </c>
+      <c r="A31" s="58"/>
       <c r="B31" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
+        <v>79</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
       <c r="I31" s="74"/>
@@ -2573,22 +2588,18 @@
       <c r="T31" s="77"/>
     </row>
     <row r="32" spans="1:20" s="31" customFormat="1">
-      <c r="A32" s="58">
-        <f>A31+1</f>
-        <v>2</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="63"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
       <c r="G32" s="74"/>
       <c r="H32" s="74"/>
       <c r="I32" s="74"/>
       <c r="J32" s="74"/>
       <c r="K32" s="74"/>
+      <c r="L32" s="73"/>
       <c r="M32" s="77"/>
       <c r="N32" s="78"/>
       <c r="O32" s="78"/>
@@ -2599,236 +2610,238 @@
       <c r="T32" s="77"/>
     </row>
     <row r="33" spans="1:22" s="31" customFormat="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-    </row>
-    <row r="34" spans="1:22" s="31" customFormat="1">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34" s="74"/>
-      <c r="M34"/>
-      <c r="N34"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="3" t="s">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33" s="74"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="12"/>
-    </row>
-    <row r="36" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A36" s="106" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="12"/>
+    </row>
+    <row r="35" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A35" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B35" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="105" t="s">
+      <c r="C35" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="105" t="s">
+      <c r="D35" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="107" t="s">
+      <c r="E35" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="105" t="s">
+      <c r="F35" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="105" t="s">
+      <c r="G35" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="I36" s="101" t="s">
+      <c r="I35" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="104"/>
+      <c r="O35" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="S35" s="105"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="7"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="106"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="105"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="12"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="16">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="90"/>
+      <c r="I37" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="J36" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="M36" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="104"/>
-      <c r="O36" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="R36" s="105" t="s">
+      <c r="J37" s="90"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="39"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="12"/>
+    </row>
+    <row r="38" spans="1:22" ht="14" customHeight="1">
+      <c r="A38" s="16">
         <v>2</v>
       </c>
-      <c r="S36" s="105"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="7"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="106"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="P37" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q37" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="12"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="16">
-        <v>1</v>
-      </c>
       <c r="B38" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="90"/>
-      <c r="I38" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="90"/>
-      <c r="K38" s="86"/>
+      <c r="F38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="87" t="s">
+        <v>45</v>
+      </c>
       <c r="L38" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="39"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="41"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
       <c r="R38" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
-      <c r="U38" s="26"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="12"/>
     </row>
-    <row r="39" spans="1:22" ht="14" customHeight="1">
-      <c r="A39" s="16">
-        <v>2</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>11</v>
-      </c>
+    <row r="39" spans="1:22">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="42" t="s">
-        <v>77</v>
-      </c>
+      <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="L39" s="87" t="s">
-        <v>45</v>
-      </c>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
-      <c r="R39" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="R39" s="18"/>
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
       <c r="U39" s="20"/>
@@ -2864,18 +2877,18 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="87"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="88"/>
       <c r="L41" s="87"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
       <c r="R41" s="18"/>
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
@@ -2888,18 +2901,18 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="88"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="87"/>
       <c r="L42" s="87"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
       <c r="S42" s="19"/>
       <c r="T42" s="19"/>
@@ -2912,18 +2925,18 @@
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="87"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="88"/>
       <c r="L43" s="87"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
       <c r="R43" s="18"/>
       <c r="S43" s="19"/>
       <c r="T43" s="19"/>
@@ -2936,18 +2949,18 @@
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="88"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="87"/>
       <c r="L44" s="87"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
       <c r="S44" s="19"/>
       <c r="T44" s="19"/>
@@ -2960,18 +2973,18 @@
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="87"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="88"/>
       <c r="L45" s="87"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
       <c r="R45" s="18"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
@@ -2984,18 +2997,18 @@
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="88"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="87"/>
       <c r="L46" s="87"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
       <c r="S46" s="19"/>
       <c r="T46" s="19"/>
@@ -3099,100 +3112,76 @@
       <c r="V50" s="12"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="25"/>
       <c r="V51" s="12"/>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="R36:S37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="R35:S36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="H35:H36"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations disablePrompts="1" count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M58:Q58 F68 L63" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M57:Q57 F67 L62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{E216732A-E969-034F-9EE0-B9384A2A064D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{E216732A-E969-034F-9EE0-B9384A2A064D}">
       <formula1>createToString</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{EDC788E7-89DD-F04C-A014-D340DF2759CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{EDC788E7-89DD-F04C-A014-D340DF2759CA}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{C21BA24C-69B4-FA48-BE39-8BC5867C6E31}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{C21BA24C-69B4-FA48-BE39-8BC5867C6E31}">
       <formula1>adjustDefaultValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K38:K52" xr:uid="{BF4683B4-0915-0242-997D-7FB58A59D5DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K37:K51" xr:uid="{BF4683B4-0915-0242-997D-7FB58A59D5DA}">
       <formula1>others</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{5E1FE143-8BD9-EB43-A8F8-EBFA0B3D612E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{5E1FE143-8BD9-EB43-A8F8-EBFA0B3D612E}">
       <formula1>accessScope</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{E45977BF-F6CA-8B4B-953E-BC449DF9B05E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{E45977BF-F6CA-8B4B-953E-BC449DF9B05E}">
       <formula1>isAbstract</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{A0277A5B-AA62-FB46-ABF8-FB26CE5B5477}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{A0277A5B-AA62-FB46-ABF8-FB26CE5B5477}">
       <formula1>isFinal</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{2FED42AB-6D5F-2840-8FD3-655E06727165}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{2FED42AB-6D5F-2840-8FD3-655E06727165}">
       <formula1>isData</formula1>
     </dataValidation>
   </dataValidations>
@@ -3259,10 +3248,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="75" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="75" t="s">
-        <v>66</v>
       </c>
       <c r="H3" s="75" t="s">
         <v>37</v>
@@ -3277,7 +3266,7 @@
         <v>40</v>
       </c>
       <c r="P3" s="75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3286,7 +3275,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="46"/>
       <c r="J4" s="46"/>

--- a/blanco-meta/telegrams/CommonRequest.xlsx
+++ b/blanco-meta/telegrams/CommonRequest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F720D6-C160-8A4C-80CA-65747F51C1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A20F3C4-E61C-E743-BC1C-CEC064D41ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1976,8 +1976,8 @@
   </sheetPr>
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2542,7 +2542,9 @@
       <c r="T29" s="77"/>
     </row>
     <row r="30" spans="1:20" s="31" customFormat="1">
-      <c r="A30" s="58"/>
+      <c r="A30" s="58">
+        <v>1</v>
+      </c>
       <c r="B30" s="59" t="s">
         <v>78</v>
       </c>
@@ -2565,7 +2567,9 @@
       <c r="T30" s="77"/>
     </row>
     <row r="31" spans="1:20" s="31" customFormat="1">
-      <c r="A31" s="58"/>
+      <c r="A31" s="58">
+        <v>2</v>
+      </c>
       <c r="B31" s="59" t="s">
         <v>79</v>
       </c>

--- a/blanco-meta/telegrams/CommonRequest.xlsx
+++ b/blanco-meta/telegrams/CommonRequest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A20F3C4-E61C-E743-BC1C-CEC064D41ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20215420-A654-704A-BF0E-1EAF442A24B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6380" yWindow="6920" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="2" r:id="rId1"/>
@@ -485,11 +485,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>javax.validation.Valid</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>S : RequestHeader, T : ApiTelegram</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jakarta.validation.Valid</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1339,24 +1339,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1368,24 +1367,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1398,7 +1396,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,7 +1412,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1480,19 +1478,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1506,7 +1495,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1526,7 +1515,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1545,7 +1534,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1976,17 +1965,17 @@
   </sheetPr>
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="10" width="20.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="10" style="31" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="31" customWidth="1"/>
+    <col min="7" max="10" width="20.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
     <col min="13" max="17" width="9" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
@@ -2021,15 +2010,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="82"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
@@ -2041,15 +2022,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="83"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
+      <c r="F6" s="76"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
@@ -2059,17 +2032,9 @@
       <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="84"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
@@ -2079,73 +2044,49 @@
       <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="31" t="s">
+      <c r="F8" s="70"/>
+      <c r="G8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-    </row>
-    <row r="9" spans="1:20" s="31" customFormat="1">
-      <c r="A9" s="52" t="s">
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="71"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="69"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="84"/>
-    </row>
-    <row r="10" spans="1:20" s="31" customFormat="1">
-      <c r="A10" s="99" t="s">
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-    </row>
-    <row r="11" spans="1:20" s="31" customFormat="1">
-      <c r="A11" s="52" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="97" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="85"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="76"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
@@ -2157,15 +2098,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="83"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
@@ -2177,23 +2110,15 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="83"/>
+      <c r="F13" s="76"/>
       <c r="L13"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-    </row>
-    <row r="14" spans="1:20" s="31" customFormat="1">
-      <c r="A14" s="49" t="s">
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -2206,12 +2131,12 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:20" s="31" customFormat="1">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
@@ -2228,12 +2153,12 @@
       <c r="M15"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:20" s="31" customFormat="1">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -2246,12 +2171,12 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:20" s="31" customFormat="1">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:19">
+      <c r="A17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D17"/>
@@ -2266,12 +2191,12 @@
       <c r="M17"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:20" s="31" customFormat="1">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:19">
+      <c r="A18" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -2281,21 +2206,14 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-    </row>
-    <row r="19" spans="1:20" s="31" customFormat="1">
-      <c r="A19" s="49" t="s">
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D19"/>
@@ -2306,21 +2224,14 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-    </row>
-    <row r="20" spans="1:20" s="31" customFormat="1">
-      <c r="A20" s="49" t="s">
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -2329,21 +2240,14 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-    </row>
-    <row r="21" spans="1:20" s="31" customFormat="1">
-      <c r="A21" s="68" t="s">
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="51" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D21" t="s">
@@ -2355,126 +2259,91 @@
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="L21" s="71"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="76"/>
-    </row>
-    <row r="23" spans="1:20" s="31" customFormat="1">
-      <c r="A23" s="28" t="s">
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-    </row>
-    <row r="24" spans="1:20" s="31" customFormat="1">
-      <c r="A24" s="32" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-    </row>
-    <row r="25" spans="1:20" s="31" customFormat="1">
-      <c r="A25" s="52" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-    </row>
-    <row r="26" spans="1:20" s="31" customFormat="1">
-      <c r="A26" s="52" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-    </row>
-    <row r="27" spans="1:20" s="31" customFormat="1">
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2486,134 +2355,99 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-    </row>
-    <row r="28" spans="1:20" s="31" customFormat="1">
-      <c r="A28" s="28" t="s">
+      <c r="L27" s="72"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-    </row>
-    <row r="29" spans="1:20" s="31" customFormat="1">
-      <c r="A29" s="56" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-    </row>
-    <row r="30" spans="1:20" s="31" customFormat="1">
-      <c r="A30" s="58">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="71"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="56">
         <v>1</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-    </row>
-    <row r="31" spans="1:20" s="31" customFormat="1">
-      <c r="A31" s="58">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="56">
         <v>2</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-    </row>
-    <row r="32" spans="1:20" s="31" customFormat="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-    </row>
-    <row r="33" spans="1:22" s="31" customFormat="1">
+      <c r="B31" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="71"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2625,7 +2459,7 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33" s="74"/>
+      <c r="L33" s="72"/>
       <c r="M33"/>
       <c r="N33"/>
     </row>
@@ -2633,511 +2467,511 @@
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="12"/>
+      <c r="V34" s="11"/>
     </row>
     <row r="35" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="105" t="s">
+      <c r="D35" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="107" t="s">
+      <c r="E35" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="105" t="s">
+      <c r="F35" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="105" t="s">
+      <c r="G35" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="105" t="s">
+      <c r="H35" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="105" t="s">
+      <c r="I35" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="J35" s="101" t="s">
+      <c r="J35" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="101" t="s">
+      <c r="K35" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="109" t="s">
+      <c r="L35" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="M35" s="103" t="s">
+      <c r="M35" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="N35" s="104"/>
-      <c r="O35" s="103" t="s">
+      <c r="N35" s="95"/>
+      <c r="O35" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="37" t="s">
+      <c r="P35" s="95"/>
+      <c r="Q35" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="105" t="s">
+      <c r="R35" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="S35" s="105"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="14"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="13"/>
       <c r="V35" s="7"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="106"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="38" t="s">
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="38" t="s">
+      <c r="N36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="38" t="s">
+      <c r="O36" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="P36" s="38" t="s">
+      <c r="P36" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Q36" s="38" t="s">
+      <c r="Q36" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="12"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="11"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>1</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="90" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="90" t="s">
+      <c r="G37" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="90"/>
-      <c r="I37" s="98" t="s">
+      <c r="H37" s="81"/>
+      <c r="I37" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="90"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="87" t="s">
+      <c r="J37" s="81"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="M37" s="39"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="18" t="s">
+      <c r="M37" s="37"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="12"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="11"/>
     </row>
     <row r="38" spans="1:22" ht="14" customHeight="1">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>2</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="42" t="s">
+      <c r="H38" s="17"/>
+      <c r="I38" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="87" t="s">
+      <c r="J38" s="17"/>
+      <c r="K38" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="87" t="s">
+      <c r="L38" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18" t="s">
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="12"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="11"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="12"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="11"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="12"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="11"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="12"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="11"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="12"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="11"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="12"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="11"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="12"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="11"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="12"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="11"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="12"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="11"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="12"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="11"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="12"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="11"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="12"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="11"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="12"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="11"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="12"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3210,107 +3044,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="261" width="8.83203125" style="45" customWidth="1"/>
-    <col min="262" max="16384" width="10.83203125" style="45"/>
+    <col min="1" max="3" width="8.83203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="43" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="43" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="261" width="8.83203125" style="43" customWidth="1"/>
+    <col min="262" max="16384" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="44"/>
+      <c r="R1" s="42"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="73" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="B4" s="91"/>
-      <c r="D4" s="92" t="s">
+      <c r="B4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="P4" s="46"/>
+      <c r="H4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="D5" s="84"/>
+      <c r="F5" s="46"/>
+      <c r="H5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="46" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="94"/>
+      <c r="B6" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
